--- a/biology/Histoire de la zoologie et de la botanique/Société_mycologique_du_Nord_de_la_France/Société_mycologique_du_Nord_de_la_France.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Société_mycologique_du_Nord_de_la_France/Société_mycologique_du_Nord_de_la_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_mycologique_du_Nord_de_la_France</t>
+          <t>Société_mycologique_du_Nord_de_la_France</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Société mycologique du Nord de la France, créée en 1967,  souvent appelée SMNF est association qui regroupe plus de 200 mycologues du Nord et du Pas-de-Calais s'intéressant aux champignons pour les reconnaître dans la nature, se familiariser avec leurs propriétés, leur classification, leur rôle, leur protection et leur éventuelle comestibilité.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Soci%C3%A9t%C3%A9_mycologique_du_Nord_de_la_France</t>
+          <t>Société_mycologique_du_Nord_de_la_France</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Excursions dans les milieux naturels de la région Nord-Pas-de-Calais à la recherche de champignons encadrées par des mycologues
 Séances de déterminations des récoltes
